--- a/xyz.xlsx
+++ b/xyz.xlsx
@@ -703,7 +703,7 @@
       </c>
       <c r="H2" s="0" t="inlineStr">
         <is>
-          <t>2022-07-13 14:51:18.574964</t>
+          <t>2023-01-11 21:44:32.934729</t>
         </is>
       </c>
     </row>

--- a/xyz.xlsx
+++ b/xyz.xlsx
@@ -698,12 +698,12 @@
       </c>
       <c r="G2" s="0" t="inlineStr">
         <is>
-          <t>login failed</t>
+          <t>login Success</t>
         </is>
       </c>
       <c r="H2" s="0" t="inlineStr">
         <is>
-          <t>2023-01-11 21:44:32.934729</t>
+          <t>2023-01-14 19:04:29.558460</t>
         </is>
       </c>
     </row>

--- a/xyz.xlsx
+++ b/xyz.xlsx
@@ -446,6 +446,16 @@
       </c>
     </row>
     <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>aman.bhatia@geminisolutions.com</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>RitaNandini96</t>
+        </is>
+      </c>
       <c r="C2" t="inlineStr">
         <is>
           <t>Login</t>
@@ -453,12 +463,12 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>login failed</t>
+          <t>login Success</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>2023-01-15 15:59:09.046632</t>
+          <t>2023-01-15 18:01:28.078790</t>
         </is>
       </c>
     </row>
@@ -509,6 +519,16 @@
       </c>
     </row>
     <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>aman.bhatia@geminisolutions.in</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>RitaNandini96</t>
+        </is>
+      </c>
       <c r="C2" t="inlineStr">
         <is>
           <t>Login</t>
@@ -516,12 +536,12 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>login failed</t>
+          <t>login Success</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>2023-01-15 16:02:03.860193</t>
+          <t>2023-01-15 18:10:00.279056</t>
         </is>
       </c>
     </row>
@@ -533,7 +553,7 @@
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Fail</t>
+          <t>Pass</t>
         </is>
       </c>
     </row>
@@ -545,7 +565,7 @@
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Fail</t>
+          <t>Pass</t>
         </is>
       </c>
     </row>
@@ -557,7 +577,7 @@
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Fail</t>
+          <t>Pass</t>
         </is>
       </c>
     </row>
@@ -569,7 +589,7 @@
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Fail</t>
+          <t>Pass</t>
         </is>
       </c>
     </row>

--- a/xyz.xlsx
+++ b/xyz.xlsx
@@ -483,7 +483,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H10"/>
+  <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -541,7 +541,7 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>2023-01-15 18:10:00.279056</t>
+          <t>2023-01-15 22:30:11.129369</t>
         </is>
       </c>
     </row>
@@ -601,41 +601,53 @@
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>Fail</t>
+          <t>Pass</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="C8" t="inlineStr">
         <is>
-          <t>Technology</t>
+          <t>Date of completion</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>Fail</t>
+          <t>Pass</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="C9" t="inlineStr">
         <is>
-          <t>Submit</t>
+          <t>Engineering Council (EC)</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>Fail</t>
+          <t>Pass</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="C10" t="inlineStr">
         <is>
+          <t>Submit</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="C11" t="inlineStr">
+        <is>
           <t>OK Button</t>
         </is>
       </c>
-      <c r="G10" t="inlineStr">
+      <c r="G11" t="inlineStr">
         <is>
           <t>Fail</t>
         </is>

--- a/xyz.xlsx
+++ b/xyz.xlsx
@@ -9,6 +9,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="LoginMFA" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="certifications" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ClientFeedback" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="162913" fullCalcOnLoad="1"/>
@@ -656,4 +657,185 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>Email</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>Password</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>Test Case Module</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
+          <t>Result</t>
+        </is>
+      </c>
+      <c r="H1" t="inlineStr">
+        <is>
+          <t>Date and Time</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>aman.bhatia@geminisolutions.in</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>RitaNandini96</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>Login</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>login Success</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>2023-01-16 08:54:13.636705</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>Selecting ClientFeedback</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Add New</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Project Name</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Client Name</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Upload attatchment</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Upload attatchment</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Engineering Council (EC)</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Submit</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>OK Button</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>Fail</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/xyz.xlsx
+++ b/xyz.xlsx
@@ -10,6 +10,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="LoginMFA" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="certifications" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ClientFeedback" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Interview Taken" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="162913" fullCalcOnLoad="1"/>
@@ -838,4 +839,197 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>Email</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>Password</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>Test Case Module</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
+          <t>Result</t>
+        </is>
+      </c>
+      <c r="H1" t="inlineStr">
+        <is>
+          <t>Date and Time</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>aman.bhatia@geminisolutions.in</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>RitaNandini96</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>Login</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>login Success</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>2023-01-16 13:23:31.835121</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>Interview Taken</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Add New Button</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Interview Position</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Experience Level</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>No. of Interview Taken</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Interview Month</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Engineering Council (EC)</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Submit</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>OK Button</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/xyz.xlsx
+++ b/xyz.xlsx
@@ -538,12 +538,12 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>login Success</t>
+          <t>login failed</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>2023-01-15 22:30:11.129369</t>
+          <t>2023-01-17 23:51:10.162784</t>
         </is>
       </c>
     </row>
@@ -555,7 +555,7 @@
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Pass</t>
+          <t>Fail</t>
         </is>
       </c>
     </row>
@@ -567,7 +567,7 @@
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Pass</t>
+          <t>Fail</t>
         </is>
       </c>
     </row>
@@ -579,7 +579,7 @@
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Pass</t>
+          <t>Fail</t>
         </is>
       </c>
     </row>
@@ -591,7 +591,7 @@
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Pass</t>
+          <t>Fail</t>
         </is>
       </c>
     </row>
@@ -603,19 +603,19 @@
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>Pass</t>
+          <t>Fail</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="C8" t="inlineStr">
         <is>
-          <t>Date of completion</t>
+          <t>Technology</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>Pass</t>
+          <t>Fail</t>
         </is>
       </c>
     </row>
@@ -627,7 +627,7 @@
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>Pass</t>
+          <t>Fail</t>
         </is>
       </c>
     </row>
@@ -639,7 +639,7 @@
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>Pass</t>
+          <t>Fail</t>
         </is>
       </c>
     </row>

--- a/xyz.xlsx
+++ b/xyz.xlsx
@@ -543,7 +543,7 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>2023-01-17 23:51:10.162784</t>
+          <t>2023-01-20 23:24:29.901595</t>
         </is>
       </c>
     </row>
@@ -555,7 +555,7 @@
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Fail</t>
+          <t>Pass</t>
         </is>
       </c>
     </row>
@@ -567,7 +567,7 @@
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Fail</t>
+          <t>Pass</t>
         </is>
       </c>
     </row>
@@ -579,7 +579,7 @@
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Fail</t>
+          <t>Pass</t>
         </is>
       </c>
     </row>
@@ -591,7 +591,7 @@
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Fail</t>
+          <t>Pass</t>
         </is>
       </c>
     </row>
@@ -603,19 +603,19 @@
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>Fail</t>
+          <t>Pass</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="C8" t="inlineStr">
         <is>
-          <t>Technology</t>
+          <t>Date of completion</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>Fail</t>
+          <t>Pass</t>
         </is>
       </c>
     </row>
@@ -627,7 +627,7 @@
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>Fail</t>
+          <t>Pass</t>
         </is>
       </c>
     </row>

--- a/xyz.xlsx
+++ b/xyz.xlsx
@@ -11,6 +11,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="certifications" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ClientFeedback" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Interview Taken" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Mentorship" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="SelfDevelopment" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="162913" fullCalcOnLoad="1"/>
@@ -543,7 +545,7 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>2023-01-20 23:24:29.901595</t>
+          <t>2023-01-24 16:29:59.484112</t>
         </is>
       </c>
     </row>
@@ -639,7 +641,7 @@
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>Fail</t>
+          <t>Pass</t>
         </is>
       </c>
     </row>
@@ -724,7 +726,7 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>2023-01-16 08:54:13.636705</t>
+          <t>2023-01-24 21:38:04.299573</t>
         </is>
       </c>
     </row>
@@ -779,7 +781,7 @@
     <row r="7">
       <c r="C7" t="inlineStr">
         <is>
-          <t>Upload attatchment</t>
+          <t>Enter Client Feedback</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
@@ -905,7 +907,7 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>2023-01-16 13:23:31.835121</t>
+          <t>2023-01-24 22:28:33.784719</t>
         </is>
       </c>
     </row>
@@ -1024,6 +1026,348 @@
         </is>
       </c>
       <c r="G12" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>Email</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>Password</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>Test Case Module</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
+          <t>Result</t>
+        </is>
+      </c>
+      <c r="H1" t="inlineStr">
+        <is>
+          <t>Date and Time</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>Login</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>login Success</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>2023-01-24 23:42:20.919624</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>Mentorship</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Add New Button</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Mentorship</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Mentorship</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Enter Description</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Engineering Council (EC)</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Technology- Automation Testing</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Submit</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>OK Button</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>Email</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>Password</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>Test Case Module</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
+          <t>Result</t>
+        </is>
+      </c>
+      <c r="H1" t="inlineStr">
+        <is>
+          <t>Date and Time</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>Login</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>login Success</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>2023-01-25 00:16:11.725758</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>SelfDevelopment</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Add New Button</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Skill_Name</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Duration</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Start Date</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Engineering Council (EC)</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Submit</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>Fail</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>OK Button</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
         <is>
           <t>Pass</t>
         </is>

--- a/xyz.xlsx
+++ b/xyz.xlsx
@@ -13,6 +13,9 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Interview Taken" sheetId="5" state="visible" r:id="rId5"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Mentorship" sheetId="6" state="visible" r:id="rId6"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="SelfDevelopment" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Projects" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="TeamBuildingActivity" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="TrainingSessions" sheetId="10" state="visible" r:id="rId10"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="162913" fullCalcOnLoad="1"/>
@@ -408,6 +411,201 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>Email</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>Password</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>Test Case Module</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
+          <t>Result</t>
+        </is>
+      </c>
+      <c r="H1" t="inlineStr">
+        <is>
+          <t>Date and Time</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>Login</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>login Success</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>2023-01-25 09:22:00.340890</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>TRAINING &amp; SESSION</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Add New Button</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>SessionName</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Number Of Session Provided</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Start Date</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Session Date</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Engineering Council (EC)</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Technology Dropdown</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Submit</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>OK Button</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
@@ -1376,4 +1574,346 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>Email</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>Password</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>Test Case Module</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
+          <t>Result</t>
+        </is>
+      </c>
+      <c r="H1" t="inlineStr">
+        <is>
+          <t>Date and Time</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>Login</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>login Success</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>2023-01-25 08:13:25.426654</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>Project</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Add New Button</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Project type</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Project Title</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Date Of Completion</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Engineering Council (EC)</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Submit</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>OK Button</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>Email</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>Password</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>Test Case Module</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
+          <t>Result</t>
+        </is>
+      </c>
+      <c r="H1" t="inlineStr">
+        <is>
+          <t>Date and Time</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>Login</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>login Success</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>2023-01-25 08:36:20.803226</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>Team Building Activity</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Add New button</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Name of Activity Conducted</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>No. Of Participants in the Activity</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Engineering Council (EC)</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Date of the Activity</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>SUBMIT</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>OK BUTTON</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/xyz.xlsx
+++ b/xyz.xlsx
@@ -16,6 +16,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Projects" sheetId="8" state="visible" r:id="rId8"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="TeamBuildingActivity" sheetId="9" state="visible" r:id="rId9"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="TrainingSessions" sheetId="10" state="visible" r:id="rId10"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Report Bug" sheetId="11" state="visible" r:id="rId11"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="162913" fullCalcOnLoad="1"/>
@@ -606,6 +607,177 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>Email</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>Password</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>Test Case Module</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
+          <t>Result</t>
+        </is>
+      </c>
+      <c r="H1" t="inlineStr">
+        <is>
+          <t>Date and Time</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>Login</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>login Success</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>2023-01-25 12:06:56.201454</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>Report a Bug/Feedback</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Add New</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Issue Subject</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Issue Category - Design</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Website Feature - Certificate</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Uploading Attachment gets Pass</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Submit</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>Fail</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>OK Button</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>

--- a/xyz.xlsx
+++ b/xyz.xlsx
@@ -7,16 +7,11 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="LoginMFA" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="certifications" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ClientFeedback" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Interview Taken" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Mentorship" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="SelfDevelopment" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Projects" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="TeamBuildingActivity" sheetId="9" state="visible" r:id="rId9"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="TrainingSessions" sheetId="10" state="visible" r:id="rId10"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Report Bug" sheetId="11" state="visible" r:id="rId11"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Report Bug" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="SelfDevelopment" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="TeamBuildingActivity" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="TrainingSessions" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Allot Budget" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="162913" fullCalcOnLoad="1"/>
@@ -412,202 +407,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:H13"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>Email</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>Password</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>Test Case Module</t>
-        </is>
-      </c>
-      <c r="G1" t="inlineStr">
-        <is>
-          <t>Result</t>
-        </is>
-      </c>
-      <c r="H1" t="inlineStr">
-        <is>
-          <t>Date and Time</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>Login</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>login Success</t>
-        </is>
-      </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>2023-01-25 09:22:00.340890</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>TRAINING &amp; SESSION</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>Pass</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>Add New Button</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>Pass</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>SessionName</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>Pass</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>Description</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>Pass</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>Number Of Session Provided</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>Pass</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>Start Date</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>Pass</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>Session Date</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>Pass</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>Engineering Council (EC)</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>Pass</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>Technology Dropdown</t>
-        </is>
-      </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>Pass</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>Submit</t>
-        </is>
-      </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>Pass</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>OK Button</t>
-        </is>
-      </c>
-      <c r="G13" t="inlineStr">
-        <is>
-          <t>Pass</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -661,7 +461,7 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>2023-01-25 12:06:56.201454</t>
+          <t>2023-01-26 11:01:44.651614</t>
         </is>
       </c>
     </row>
@@ -770,79 +570,6 @@
       <c r="G11" t="inlineStr">
         <is>
           <t>Pass</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:H2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>Email</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>Password</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>Test Case Module</t>
-        </is>
-      </c>
-      <c r="G1" t="inlineStr">
-        <is>
-          <t>Result</t>
-        </is>
-      </c>
-      <c r="H1" t="inlineStr">
-        <is>
-          <t>Date and Time</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>aman.bhatia@geminisolutions.com</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>RitaNandini96</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>Login</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>login Success</t>
-        </is>
-      </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>2023-01-15 18:01:28.078790</t>
         </is>
       </c>
     </row>
@@ -893,16 +620,6 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>aman.bhatia@geminisolutions.in</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>RitaNandini96</t>
-        </is>
-      </c>
       <c r="C2" t="inlineStr">
         <is>
           <t>Login</t>
@@ -910,19 +627,19 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>login failed</t>
+          <t>login Success</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>2023-01-24 16:29:59.484112</t>
+          <t>2023-01-26 11:05:23.371598</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="C3" t="inlineStr">
         <is>
-          <t>Certifications</t>
+          <t>SelfDevelopment</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
@@ -934,7 +651,7 @@
     <row r="4">
       <c r="C4" t="inlineStr">
         <is>
-          <t>Add New Contribution</t>
+          <t>Add New Button</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
@@ -946,7 +663,7 @@
     <row r="5">
       <c r="C5" t="inlineStr">
         <is>
-          <t>Name Of Certification</t>
+          <t>Skill_Name</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
@@ -958,7 +675,7 @@
     <row r="6">
       <c r="C6" t="inlineStr">
         <is>
-          <t>Date of completion</t>
+          <t>Duration</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
@@ -970,7 +687,7 @@
     <row r="7">
       <c r="C7" t="inlineStr">
         <is>
-          <t>Upload attatchment</t>
+          <t>Start Date</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
@@ -982,7 +699,7 @@
     <row r="8">
       <c r="C8" t="inlineStr">
         <is>
-          <t>Date of completion</t>
+          <t>Description</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
@@ -1023,7 +740,7 @@
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>Fail</t>
+          <t>Pass</t>
         </is>
       </c>
     </row>
@@ -1074,16 +791,6 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>aman.bhatia@geminisolutions.in</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>RitaNandini96</t>
-        </is>
-      </c>
       <c r="C2" t="inlineStr">
         <is>
           <t>Login</t>
@@ -1096,14 +803,14 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>2023-01-24 21:38:04.299573</t>
+          <t>2023-01-26 11:06:46.289782</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="C3" t="inlineStr">
         <is>
-          <t>Selecting ClientFeedback</t>
+          <t>Team Building Activity</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
@@ -1115,7 +822,7 @@
     <row r="4">
       <c r="C4" t="inlineStr">
         <is>
-          <t>Add New</t>
+          <t>Add New button</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
@@ -1127,7 +834,7 @@
     <row r="5">
       <c r="C5" t="inlineStr">
         <is>
-          <t>Project Name</t>
+          <t>Name of Activity Conducted</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
@@ -1139,7 +846,7 @@
     <row r="6">
       <c r="C6" t="inlineStr">
         <is>
-          <t>Client Name</t>
+          <t>No. Of Participants in the Activity</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
@@ -1151,7 +858,7 @@
     <row r="7">
       <c r="C7" t="inlineStr">
         <is>
-          <t>Enter Client Feedback</t>
+          <t>Description</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
@@ -1163,7 +870,7 @@
     <row r="8">
       <c r="C8" t="inlineStr">
         <is>
-          <t>Upload attatchment</t>
+          <t>Engineering Council (EC)</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
@@ -1175,7 +882,7 @@
     <row r="9">
       <c r="C9" t="inlineStr">
         <is>
-          <t>Engineering Council (EC)</t>
+          <t>Date of the Activity</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
@@ -1187,7 +894,7 @@
     <row r="10">
       <c r="C10" t="inlineStr">
         <is>
-          <t>Submit</t>
+          <t>SUBMIT</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
@@ -1199,12 +906,12 @@
     <row r="11">
       <c r="C11" t="inlineStr">
         <is>
-          <t>OK Button</t>
+          <t>OK BUTTON</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>Fail</t>
+          <t>Pass</t>
         </is>
       </c>
     </row>
@@ -1219,7 +926,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H12"/>
+  <dimension ref="A1:H13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1255,16 +962,6 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>aman.bhatia@geminisolutions.in</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>RitaNandini96</t>
-        </is>
-      </c>
       <c r="C2" t="inlineStr">
         <is>
           <t>Login</t>
@@ -1277,14 +974,14 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>2023-01-24 22:28:33.784719</t>
+          <t>2023-01-26 11:10:05.019545</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="C3" t="inlineStr">
         <is>
-          <t>Interview Taken</t>
+          <t>TRAINING &amp; SESSION</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
@@ -1308,7 +1005,7 @@
     <row r="5">
       <c r="C5" t="inlineStr">
         <is>
-          <t>Interview Position</t>
+          <t>SessionName</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
@@ -1320,7 +1017,7 @@
     <row r="6">
       <c r="C6" t="inlineStr">
         <is>
-          <t>Experience Level</t>
+          <t>Description</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
@@ -1332,7 +1029,7 @@
     <row r="7">
       <c r="C7" t="inlineStr">
         <is>
-          <t>No. of Interview Taken</t>
+          <t>Number Of Session Provided</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
@@ -1344,7 +1041,7 @@
     <row r="8">
       <c r="C8" t="inlineStr">
         <is>
-          <t>Interview Month</t>
+          <t>Start Date</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
@@ -1356,7 +1053,7 @@
     <row r="9">
       <c r="C9" t="inlineStr">
         <is>
-          <t>Engineering Council (EC)</t>
+          <t>Session Date</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
@@ -1368,7 +1065,7 @@
     <row r="10">
       <c r="C10" t="inlineStr">
         <is>
-          <t>Description</t>
+          <t>Engineering Council (EC)</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
@@ -1380,7 +1077,7 @@
     <row r="11">
       <c r="C11" t="inlineStr">
         <is>
-          <t>Submit</t>
+          <t>Technology Dropdown</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
@@ -1392,10 +1089,22 @@
     <row r="12">
       <c r="C12" t="inlineStr">
         <is>
+          <t>Submit</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="C13" t="inlineStr">
+        <is>
           <t>OK Button</t>
         </is>
       </c>
-      <c r="G12" t="inlineStr">
+      <c r="G13" t="inlineStr">
         <is>
           <t>Pass</t>
         </is>
@@ -1412,7 +1121,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H11"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1460,14 +1169,14 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>2023-01-24 23:42:20.919624</t>
+          <t>2023-01-26 11:10:45.636263</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="C3" t="inlineStr">
         <is>
-          <t>Mentorship</t>
+          <t>Admin Portal--Add New button</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
@@ -1479,7 +1188,7 @@
     <row r="4">
       <c r="C4" t="inlineStr">
         <is>
-          <t>Add New Button</t>
+          <t>Dropdown--Allot Budget</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
@@ -1491,7 +1200,7 @@
     <row r="5">
       <c r="C5" t="inlineStr">
         <is>
-          <t>Mentorship</t>
+          <t>Allot Budget Excel sheet</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
@@ -1503,7 +1212,7 @@
     <row r="6">
       <c r="C6" t="inlineStr">
         <is>
-          <t>Mentorship</t>
+          <t>SUBMIT</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
@@ -1515,7 +1224,7 @@
     <row r="7">
       <c r="C7" t="inlineStr">
         <is>
-          <t>Enter Description</t>
+          <t>OK BUTTON</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
@@ -1527,561 +1236,24 @@
     <row r="8">
       <c r="C8" t="inlineStr">
         <is>
-          <t>Engineering Council (EC)</t>
+          <t>Alloting Budget(₹)</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>Pass</t>
+          <t>Fail</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="C9" t="inlineStr">
         <is>
-          <t>Technology- Automation Testing</t>
+          <t>Action-View BUTTON</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>Pass</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>Submit</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>Pass</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>OK Button</t>
-        </is>
-      </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>Pass</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:H11"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>Email</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>Password</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>Test Case Module</t>
-        </is>
-      </c>
-      <c r="G1" t="inlineStr">
-        <is>
-          <t>Result</t>
-        </is>
-      </c>
-      <c r="H1" t="inlineStr">
-        <is>
-          <t>Date and Time</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>Login</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>login Success</t>
-        </is>
-      </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>2023-01-25 00:16:11.725758</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>SelfDevelopment</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>Pass</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>Add New Button</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>Pass</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>Skill_Name</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>Pass</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>Duration</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>Pass</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>Start Date</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>Pass</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>Description</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>Pass</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>Engineering Council (EC)</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>Pass</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>Submit</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
           <t>Fail</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>OK Button</t>
-        </is>
-      </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>Pass</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:H11"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>Email</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>Password</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>Test Case Module</t>
-        </is>
-      </c>
-      <c r="G1" t="inlineStr">
-        <is>
-          <t>Result</t>
-        </is>
-      </c>
-      <c r="H1" t="inlineStr">
-        <is>
-          <t>Date and Time</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>Login</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>login Success</t>
-        </is>
-      </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>2023-01-25 08:13:25.426654</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>Project</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>Pass</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>Add New Button</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>Pass</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>Project type</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>Pass</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>Project Title</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>Pass</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>Date Of Completion</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>Pass</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>Description</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>Pass</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>Engineering Council (EC)</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>Pass</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>Submit</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>Pass</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>OK Button</t>
-        </is>
-      </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>Pass</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:H11"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>Email</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>Password</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>Test Case Module</t>
-        </is>
-      </c>
-      <c r="G1" t="inlineStr">
-        <is>
-          <t>Result</t>
-        </is>
-      </c>
-      <c r="H1" t="inlineStr">
-        <is>
-          <t>Date and Time</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>Login</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>login Success</t>
-        </is>
-      </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>2023-01-25 08:36:20.803226</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>Team Building Activity</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>Pass</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>Add New button</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>Pass</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>Name of Activity Conducted</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>Pass</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>No. Of Participants in the Activity</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>Pass</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>Description</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>Pass</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>Engineering Council (EC)</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>Pass</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>Date of the Activity</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>Pass</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>SUBMIT</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>Pass</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>OK BUTTON</t>
-        </is>
-      </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>Pass</t>
         </is>
       </c>
     </row>

--- a/xyz.xlsx
+++ b/xyz.xlsx
@@ -803,7 +803,7 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>2023-01-26 11:06:46.289782</t>
+          <t>2023-01-26 12:13:50.590764</t>
         </is>
       </c>
     </row>

--- a/xyz.xlsx
+++ b/xyz.xlsx
@@ -12,6 +12,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="TeamBuildingActivity" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="TrainingSessions" sheetId="5" state="visible" r:id="rId5"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Allot Budget" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name=" Allot Occasional Reward " sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="162913" fullCalcOnLoad="1"/>
@@ -1260,4 +1261,151 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>Email</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>Password</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>Test Case Module</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
+          <t>Result</t>
+        </is>
+      </c>
+      <c r="H1" t="inlineStr">
+        <is>
+          <t>Date and Time</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>Login</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>login Success</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>2023-01-26 13:12:21.271091</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>Admin Portal--Add New button</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="C4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Dropdown-- Allot Occasional Reward </t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="C5" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Allot Occasional Reward  Excel sheet</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>SUBMIT</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>OK BUTTON</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Allot Occasional Reward (₹)</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Occasional Reward BUTTON</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/xyz.xlsx
+++ b/xyz.xlsx
@@ -13,6 +13,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="TrainingSessions" sheetId="5" state="visible" r:id="rId5"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Allot Budget" sheetId="6" state="visible" r:id="rId6"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name=" Allot Occasional Reward " sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="LoginMFA" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="162913" fullCalcOnLoad="1"/>
@@ -1170,7 +1171,7 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>2023-01-26 11:10:45.636263</t>
+          <t>2023-01-26 13:19:49.378394</t>
         </is>
       </c>
     </row>
@@ -1408,4 +1409,77 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>Email</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>Password</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>Test Case Module</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
+          <t>Result</t>
+        </is>
+      </c>
+      <c r="H1" t="inlineStr">
+        <is>
+          <t>Date and #time</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>aman.bhatia@geminisolutions.com</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>RitaNandini96</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>Login</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>login failed</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>2023-01-26 13:16:09.479935</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>